--- a/medicine/Sexualité et sexologie/Maîtresse_royale/Maîtresse_royale.xlsx
+++ b/medicine/Sexualité et sexologie/Maîtresse_royale/Maîtresse_royale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtresse_royale</t>
+          <t>Maîtresse_royale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis le Moyen Âge, il est fréquent de voir les rois, dont les mariages sont habituellement politiques, entretenir une ou plusieurs maîtresses royales appelées aussi favorites. Le fait est même prétexte de gloire ; les monarques sans maîtresse suscitent davantage de moqueries que de respect comme pour Louis XVI. Le statut de maîtresse royale est également envié, particulièrement à partir de Louis XIV, qui honore ses conquêtes de terres, de demeures ou de rentes à vie.
 Les rois les plus entourés furent sûrement les rois de France Henri IV, judicieusement surnommé le Vert-Galant, Louis XIV et son arrière-petit-fils, Louis XV.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AEtresse_royale</t>
+          <t>Maîtresse_royale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,15 +531,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maîtresses royales
-Liste des maîtresses des empereurs germaniques
+          <t>Maîtresses royales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des maîtresses des empereurs germaniques
 Liste des maîtresses et amants des souverains de Grande-Bretagne
 Liste des maîtresses des rois d'Espagne
 Liste des maîtresses des souverains de France
 Liste des maîtresses et amants des souverains russes
-Liste des maîtresses et amants des souverains suédois
-Maîtresses de souverains
-Lucrèce Landriani, maîtresse de Galéas Marie Sforza, duc de Milan
+Liste des maîtresses et amants des souverains suédois</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maîtresse_royale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ma%C3%AEtresse_royale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Listes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Maîtresses de souverains</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lucrèce Landriani, maîtresse de Galéas Marie Sforza, duc de Milan
 Marie-Françoise-Catherine de Beauvau-Craon, maîtresse de Stanislas Leszczynski, duc de Lorraine
 Lola Montez, maîtresse du roi Louis Ier de Bavière</t>
         </is>
